--- a/Employee_Reports21/Lemuel Celeste Anacleto Q0150.xlsx
+++ b/Employee_Reports21/Lemuel Celeste Anacleto Q0150.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -644,11 +644,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -690,11 +690,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -736,11 +736,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -772,11 +772,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -864,11 +864,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -956,11 +956,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1038,11 +1038,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1084,11 +1084,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
